--- a/data/georgia_census/racha/oni/age_dependency.xlsx
+++ b/data/georgia_census/racha/oni/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7A09184-804C-4312-8F97-90C61BDEA8DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57E7DBF-4CA5-4A5D-A38C-E46A3CB612DA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71847672-C3B9-4F1F-BC35-203E3E93BD7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43512D4C-2328-4421-9AD1-21A422BC0294}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D836F8C0-3FD4-4400-AF74-913288E97B81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AB55D58-80E0-40CD-8160-9DC291F4013F}"/>
 </file>